--- a/report.xlsx
+++ b/report.xlsx
@@ -1569,7 +1569,11 @@
       </c>
     </row>
     <row r="19" ht="37.5" customHeight="1" s="14">
-      <c r="A19" s="3" t="n"/>
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Мешок для обуви G9807 (черный)</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="10" t="n"/>
       <c r="D19" s="10" t="n"/>
@@ -1585,7 +1589,11 @@
       <c r="N19" s="10" t="n"/>
     </row>
     <row r="20" ht="37.5" customHeight="1" s="14">
-      <c r="A20" s="4" t="n"/>
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Ещё 2 варианта</t>
+        </is>
+      </c>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="11" t="n"/>
       <c r="D20" s="11" t="n"/>
@@ -1601,7 +1609,11 @@
       <c r="N20" s="11" t="n"/>
     </row>
     <row r="21" ht="37.5" customHeight="1" s="14">
-      <c r="A21" s="3" t="n"/>
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Кабель ZMI USB - microUSB (AL600) 1 м черный</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="10" t="n"/>
       <c r="D21" s="10" t="n"/>
@@ -1617,7 +1629,11 @@
       <c r="N21" s="10" t="n"/>
     </row>
     <row r="22" ht="37.5" customHeight="1" s="14">
-      <c r="A22" s="4" t="n"/>
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>ArtSpace Набор обложек для дневников и тетрадей 210х350 мм</t>
+        </is>
+      </c>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="11" t="n"/>
       <c r="D22" s="11" t="n"/>
@@ -1633,7 +1649,11 @@
       <c r="N22" s="11" t="n"/>
     </row>
     <row r="23" ht="37.5" customHeight="1" s="14">
-      <c r="A23" s="3" t="n"/>
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="10" t="n"/>
       <c r="D23" s="10" t="n"/>
@@ -1649,7 +1669,11 @@
       <c r="N23" s="10" t="n"/>
     </row>
     <row r="24" ht="37.5" customHeight="1" s="14">
-      <c r="A24" s="4" t="n"/>
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+        </is>
+      </c>
       <c r="B24" s="2" t="n"/>
       <c r="C24" s="11" t="n"/>
       <c r="D24" s="11" t="n"/>
@@ -1665,7 +1689,11 @@
       <c r="N24" s="11" t="n"/>
     </row>
     <row r="25" ht="37.5" customHeight="1" s="14">
-      <c r="A25" s="3" t="n"/>
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="10" t="n"/>
       <c r="D25" s="10" t="n"/>
